--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6604,7 +6605,6 @@
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>67.55</t>
@@ -6636,7 +6636,6 @@
           <t>国融融泰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>69.53</t>
@@ -6668,7 +6667,6 @@
           <t>泰达宏利改革动力量化策略灵活配置混合C</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>90.37</t>
@@ -6684,6 +6682,5412 @@
       </c>
       <c r="H98" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8624</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>107.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5796</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.0482</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8778</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0751</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0719</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0347</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0229</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0229</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8464</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7860</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5952</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4825</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3658</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2475</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1391</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1278</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1043</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7601</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7579</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6942</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.50</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5612</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5069</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4175</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4136</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4132</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4077</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3841</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2561</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2272</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001017</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>58.77</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004144</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.24</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>63.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004145</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>上投摩根安丰回报混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>003550</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>泰达宏利改革动力量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12093,4 +12094,5074 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>141.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6322</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2805</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1741</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8386</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7089</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4554</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3787</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3683</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2554</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1481</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0905</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0758</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9601</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7468</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7465</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7444</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6538</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6315</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6234</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5638</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5562</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5449</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5409</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5223</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5046</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3357</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2972</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>012326</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012327</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>40.39</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>43.45</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17164,4 +17165,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>132</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.95999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>141</v>
+      </c>
+      <c r="D3" t="n">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>97</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17173,7 +17174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17184,17 +17185,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17204,14 +17225,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>132</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.95999999999999</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -17220,14 +17263,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>141</v>
-      </c>
-      <c r="D3" t="n">
-        <v>79.67</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -17236,14 +17301,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>97</v>
-      </c>
-      <c r="D4" t="n">
-        <v>34.82</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>140.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -17252,13 +17339,2735 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4517</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5937</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0259</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9689</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8840</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8824</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8089</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7613</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7432</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6038</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4632</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4583</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4152</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4047</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3183</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3025</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1897</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>33.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>96.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>33.80</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.95999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>141</v>
+      </c>
+      <c r="D4" t="n">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>65</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19966,7 +19967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19977,17 +19978,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19997,14 +20018,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.3</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -20013,14 +20056,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>132</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.95999999999999</v>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -20029,14 +20094,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>141</v>
-      </c>
-      <c r="D4" t="n">
-        <v>79.67</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3469</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -20045,14 +20132,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>97</v>
-      </c>
-      <c r="D5" t="n">
-        <v>34.82</v>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -20061,13 +20170,1191 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7729</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7630</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3273</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>52.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>53.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>132</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.95999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>141</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>97</v>
+      </c>
+      <c r="D6" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>65</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21237,7 +21238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21248,17 +21249,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21268,14 +21289,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.17</v>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -21284,14 +21327,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.3</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3647</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -21300,14 +21365,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>132</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.95999999999999</v>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -21316,14 +21403,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>141</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.67</v>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7922</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -21332,14 +21441,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>97</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.82</v>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -21348,13 +21479,5651 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3485</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8805</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8310</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7857</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7628</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7212</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6480</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5304</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5093</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4457</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4409</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3515</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3410</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2747</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013417</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2496</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2333</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2307</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2222</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014109</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1391</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014106</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>57.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013418</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时核心资产精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011532</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>013939</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011533</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银瑞信聚丰混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>132</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.95999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>141</v>
+      </c>
+      <c r="D6" t="n">
+        <v>79.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>65</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23.98</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D2" t="n">
-        <v>35.78</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
-        <v>13.17</v>
+        <v>35.78</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>38.3</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>64.95999999999999</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>79.67</v>
+        <v>64.95999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="D7" t="n">
-        <v>34.82</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>97</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>65</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23.98</v>
       </c>
     </row>
@@ -600,6 +617,4462 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5397</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2909</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6524</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5652</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4292</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>050004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3491</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3308</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3110</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2434</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>68.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015303</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012506</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516790</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012971</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>580005</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516610</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>700002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安深证300指数增强</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012507</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方品质消费一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015304</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬丰融价值先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008537</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012972</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>东吴消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008538</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴银研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014470</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>016751</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>博时精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011242</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东吴进取策略混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>78.51</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6351,7 +10824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7621,7 +12094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10413,7 +14886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15483,7 +19956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20889,7 +25362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24610,7 +29083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
+++ b/数据整理/stocks/A股/创业板/300595-欧普康视.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>18.82</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>35.78</v>
+        <v>18.82</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>13.17</v>
+        <v>35.78</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>38.3</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D6" t="n">
-        <v>64.95999999999999</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>79.67</v>
+        <v>64.95999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="D8" t="n">
-        <v>34.82</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2552 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>97</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>65</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>23.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9417</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9135</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0017</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9882</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9790</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001984</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根中国生物医药混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>210004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金鹰稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2408</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2336</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>210005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金鹰主题优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>46.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1517</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007923</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007924</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>方正富邦天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001413</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001414</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中融鑫起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>43.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3156,1844 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2854</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6314</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7078</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6562</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6104</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4931</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4164</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012036</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺德兴远优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007152</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德策略精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>45.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>36.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>53.74</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5072,7 +9449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10824,7 +15201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12094,7 +16471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14886,7 +19263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19956,7 +24333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25362,7 +29739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29081,2526 +33458,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>570001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺德价值优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2208</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000913</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>农银医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9417</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160926</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>35.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9135</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000452</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方医药保健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.36</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5787</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>377020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根内需动力混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>31.88</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1381</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008293</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银汇理创新医疗混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0176</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003230</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.81</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0017</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>070099</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实优质企业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.9882</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9790</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>570008</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺德周期策略混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.7312</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001766</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根医疗健康股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7193</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005454</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源医疗健康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.10</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.6897</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160918</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>16.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.6056</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002408</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中信建投医改灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.6025</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001984</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>上投摩根中国生物医药混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>82.19</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5751</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005453</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>前海开源医疗健康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5569</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010090</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>65.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.4011</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>162204</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>泰达宏利行业精选混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3998</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>160143</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方创业板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>95.86</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3640</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007193</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3555</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003231</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>创金合信医疗保健行业股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3003</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009798</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.2857</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008274</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.2807</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2773</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>210004</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>金鹰稳健成长混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.47</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2599</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006299</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2524</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007553</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>中信建投医改灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>9.91</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2408</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>000870</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉实新收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2357</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2336</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>008359</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华安医疗创新混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2103</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>210005</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>金鹰主题优势混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2029</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005706</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>兴业龙腾双益平衡混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>46.54</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1637</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1627</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000073</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>上投摩根成长动力混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1517</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007923</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>方正富邦天鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>79.75</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1455</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1433</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007924</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>方正富邦天鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>79.75</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1202</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1151</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002945</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>大成盛世精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0997</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0989</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>003132</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>德邦新回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>91.54</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0984</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0757</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>000524</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>上投摩根民生需求股票</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0755</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>006881</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华宝大健康混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0698</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>001413</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中融鑫起点灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>006049</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合A/B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>007192</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0620</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0591</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>010091</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>中信建投医药健康混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>65.76</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>6.88</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>001414</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>中融鑫起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>005459</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0485</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>007481</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>华夏逸享健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>43.56</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0358</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>008275</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>大成行业先锋混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0317</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>002919</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>6.47</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>005460</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>银河嘉谊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>43.71</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>001947</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>002845</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>上投摩根安鑫回报混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>26.74</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>011159</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>大成中小盘混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>82.27</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>